--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_16_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_16_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56452.68270869563</v>
+        <v>11234083.85903042</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56452.68270869563</v>
+        <v>11234083.85903042</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7282.490037560347</v>
+        <v>1051413.742443258</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7282.490037560347</v>
+        <v>1051413.742443258</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419160101.490113</v>
+        <v>57730182.83886147</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11864.50324497394</v>
+        <v>1310159.373220151</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22789.84055550063</v>
+        <v>2474186.271899167</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33715.17786602732</v>
+        <v>3638213.170578183</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45104.15524963177</v>
+        <v>4793428.940939602</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56379.31142723542</v>
+        <v>5941970.130695143</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67654.46760483904</v>
+        <v>7090511.320450679</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78967.39710438206</v>
+        <v>8262526.070049366</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90244.21508877356</v>
+        <v>9427354.628132902</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101571.4431068138</v>
+        <v>10541091.07549175</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112663.5156867442</v>
+        <v>11705911.79934317</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123755.5882666751</v>
+        <v>12870732.52319453</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134557.9975040547</v>
+        <v>14021287.66036314</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145424.3938121414</v>
+        <v>15184576.22460245</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156912.2915849047</v>
+        <v>16254343.18543221</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168875.5035715261</v>
+        <v>17220627.79455291</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
@@ -27052,13 +27052,13 @@
         <v>6.000000000172351</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>337</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>377</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>57</v>
